--- a/Exp2/analysis/average_ranking.xlsx
+++ b/Exp2/analysis/average_ranking.xlsx
@@ -15,7 +15,199 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="160">
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>HDR</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>cu-0.025</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>HDR</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>cu-0.129</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>HDR</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>pla-0.075</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>HDR</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>pla-0.225</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>HDR</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>cu-0.025</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>HDR</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>cu-0.129</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>HDR</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>pla-0.075</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>HDR</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>pla-0.225</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>HDR</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>cu-0.025</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>HDR</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>cu-0.129</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>HDR</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>pla-0.075</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>HDR</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>pla-0.225</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>HDR</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>cu-0.025</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>HDR</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>cu-0.129</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>HDR</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>pla-0.075</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>HDR</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>pla-0.225</t>
+  </si>
   <si>
     <t>1</t>
   </si>
@@ -363,54 +555,54 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>66</v>
+        <v>130</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>68</v>
+        <v>132</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>72</v>
+        <v>136</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>74</v>
+        <v>138</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>76</v>
+        <v>140</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>78</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>65</v>
+        <v>129</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>67</v>
+        <v>131</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>69</v>
+        <v>133</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>71</v>
+        <v>135</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>73</v>
+        <v>137</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>75</v>
+        <v>139</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>77</v>
+        <v>141</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>79</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3">
@@ -824,54 +1016,54 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>84</v>
+        <v>148</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>86</v>
+        <v>150</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>88</v>
+        <v>152</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>90</v>
+        <v>154</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>92</v>
+        <v>156</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>94</v>
+        <v>158</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>81</v>
+        <v>145</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>83</v>
+        <v>147</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>85</v>
+        <v>149</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>87</v>
+        <v>151</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>89</v>
+        <v>153</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>91</v>
+        <v>155</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>93</v>
+        <v>157</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>95</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3">
